--- a/pandas总结.xlsx
+++ b/pandas总结.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="169">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,14 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>axis=0 行方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>axis=1 列方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>func:传入的函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,6 +438,329 @@
   </si>
   <si>
     <t>用于df的行或列（一维数组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_values()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_index()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascending(升序):默认为True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis=0 逐行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis=1 逐列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by=[col1, ...] 按某列进行排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascending(升序):True/False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为升序(True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN值会排在最后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列取最小值(1 1 2 -&gt; 1 1 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列值取平均排名(1 1 2 -&gt; 1.5 1.5 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method='max' 最大值排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method='average' 平均值排名(默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method='min' 最小值排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method='first' 顺序排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列取最大值(1 1 2 -&gt; 2 2 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列序号大排名靠前(1 1 2 -&gt; 1 2 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascending:True/False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍弃轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否唯一</t>
+  </si>
+  <si>
+    <t>sum()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipna:排除缺失值，默认为True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level:指定层次化索引级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idxmax()/idxmin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序/排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴向上非NAN值的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mad()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantile()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值/最小值的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skew()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs&gt;0 左偏；bs&lt;0 右偏；bs=0 正态分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kurt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk&gt;3 曲线陡峻；bk&lt;3 曲线平缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峰度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumsum()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumprod()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cummin()/cummax()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本值的累计最大值/最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续两项之差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计最大值/最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一阶差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pct_change()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分数变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.corrwith(ser)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按列名匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,12 +819,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -523,6 +832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -582,118 +897,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1000,368 +1354,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" activeCellId="1" sqref="F39 F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="8" customWidth="1"/>
     <col min="6" max="8" width="20.77734375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="54"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="54"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="52"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="40" t="s">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="41"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="C55" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="41"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="54"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="54"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="54"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="54"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="54"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="54"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A6:A41"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A42:A64"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1371,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1385,16 +2156,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1405,101 +2176,110 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/pandas总结.xlsx
+++ b/pandas总结.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="199">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,14 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pan.index.name = [name,]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df.columns.name = [name, ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为索引命名，包括层次化索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[item,...]:轴索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>axis:轴向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,6 +749,164 @@
   </si>
   <si>
     <t>按列名匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数&amp;协方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other:pandas数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的是numpy数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_counts()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort:True/False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认降序排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascending:True/False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[val1, ...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员资格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>isin()的实际含义是包含，返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布尔型数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns=[item,...]:轴索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index=[item,...] 轴索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level:指定层次化索引级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inplace:True/False 是否替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropna()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thresh:num 保留非NAN值&gt;num的行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fillna()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method: ffill/bfill(向前/向后填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节容忍度舍弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how:any/all 默认为any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value:val 指定值填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value:dict 对不同的列指定值填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>结合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回归和统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inplace:True/False 就地填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit:int 限制填充个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.index.name(s) = [name,]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.columns.name(s) = [name, ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +938,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +987,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -883,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -948,15 +1100,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -996,59 +1139,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,16 +1515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" activeCellId="1" sqref="F39 F45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="22" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="40.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" style="8" customWidth="1"/>
@@ -1375,7 +1536,7 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -1386,40 +1547,40 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9"/>
@@ -1431,8 +1592,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="9"/>
@@ -1441,698 +1602,870 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="33"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="D53" s="49"/>
+      <c r="E53" s="41"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D54" s="49"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="41"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="41"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="54"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="54"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="52" t="s">
+      <c r="D57" s="39"/>
+      <c r="E57" s="41"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="54"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="54"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="54"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="54"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="C60" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="35"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="35"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="41"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="43"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="43"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="41"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="43"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="43"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="52"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="52"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="52"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
-      <c r="B45" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="41"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="41"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="54"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="54"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="54"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="54"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="41" t="s">
+      <c r="E77" s="41"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="43"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="54"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="54"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="D78" s="35"/>
+      <c r="E78" s="41"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="43"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="43"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="43"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="43"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="43"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="43"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="43"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A69:A72"/>
+  <mergeCells count="21">
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A85:A88"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A6:A41"/>
-    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A6:A51"/>
+    <mergeCell ref="B52:B57"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A42:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A52:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,7 +2478,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2498,7 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2176,20 +2509,20 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,7 +2533,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,65 +2554,65 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48" t="s">
-        <v>112</v>
+      <c r="A14" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/pandas总结.xlsx
+++ b/pandas总结.xlsx
@@ -15,13 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="259">
   <si>
     <t>阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step1 数据导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -697,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>columns=[item,...]:轴索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>index=[item,...] 轴索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,7 +950,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left_on/right_on:左/右侧键</t>
+    <t>suffixes:(str, str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键和索引可以同时使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how:{'left', 'right', 'outer', 'inner'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以何种模式合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort:True/False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupby()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level:指定层次化索引级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by=[key1, ...] 按某列进行聚合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupby()实际上是把数据分成了若干块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个键聚合产生层次化索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回各个数据块的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组键：数组、列表、字典、函数、Series(可以混合使用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grouped.agg()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据聚合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可将描述统计的函数以字符串的形式传入;以元组的形式传入，name会作为列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(name, 'mean'), func, ...] 对所有/部分列应用相同的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as_index:True/False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否作为索引，reset_index()能实现相同效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{key1: [func,…],...} 对不同的列应用不同的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns=[item,...] 轴索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop:True/False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step1-A 数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step1-B 数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num:默认为5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num:默认为6个</t>
+  </si>
+  <si>
+    <t>left_on/right_on=[key1,…]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -966,99 +1081,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>suffixes:(str, str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键和索引可以同时使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>how:{'left', 'right', 'outer', 'inner'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以何种模式合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort:True/False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupby()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level:指定层次化索引级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>by=[key1, ...] 按某列进行聚合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupby()实际上是把数据分成了若干块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个键聚合产生层次化索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回各个数据块的大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组键：数组、列表、字典、函数、Series(可以混合使用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据合并</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grouped.agg()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据聚合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可将描述统计的函数以字符串的形式传入;以元组的形式传入，name会作为列名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{key1: func,...} 对不同的列应用不同的函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[(name, 'mean'), func, ...] 对所有/部分列应用相同的函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as_index:True/False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否作为索引，reset_index()能实现相同效果</t>
+    <t>数据合并(按键)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据连接(轴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objs=[pd,...]  传入列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis:轴向 默认为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join:inner/outer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_axes:指定其他n-1条轴的索引不执行并集/交集运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys:[key,...] 生成层次化索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>names:[name,...] 为层次化索引命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_integrity:重复轴检测默认为False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore_index:不保留连接轴上的索引，默认为False(保留)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combine_first()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并数据(重复)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用第二个数据集补齐第一个数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据堆叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack()/unstack()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,6 +1277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1252,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1329,175 +1422,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1523,13 +1661,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1043940</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1287780</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1572,13 +1710,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1242060</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1905,1163 +2043,1338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="28" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="22" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" style="22" customWidth="1"/>
     <col min="4" max="4" width="40.77734375" style="22" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" style="22" customWidth="1"/>
-    <col min="6" max="8" width="20.77734375" style="50" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="50"/>
+    <col min="6" max="8" width="20.77734375" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="79"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="C2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="67"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B10" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="38" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="38" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="38" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C15" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D15" s="33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30" t="s">
-        <v>164</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="39" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="D30" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="39" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+      <c r="B40" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+      <c r="B42" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="18" t="s">
+      <c r="E42" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+      <c r="B44" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+      <c r="B45" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+      <c r="B46" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+      <c r="B50" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+      <c r="B52" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+      <c r="B53" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="69"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="69"/>
+      <c r="B55" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="69"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="63"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="63"/>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="69"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="69"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
+      <c r="B64" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="69"/>
+      <c r="B65" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="69"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="69"/>
+      <c r="B67" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="69"/>
+      <c r="B68" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="69"/>
+      <c r="B69" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="69"/>
+      <c r="B70" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="69"/>
+      <c r="B71" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="69"/>
+      <c r="B72" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="69"/>
+      <c r="B73" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="69"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="39"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="69"/>
+      <c r="B75" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="69"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="39"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="69"/>
+      <c r="B77" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="69"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="39"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="69"/>
+      <c r="B79" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="69"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="41"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="69"/>
+      <c r="B81" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="69"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="41"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="69"/>
+      <c r="B83" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="40"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="69"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="69"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="69"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="69"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="69"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="69"/>
+      <c r="B89" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="53"/>
+      <c r="E89" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="69"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="20"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="69"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="69"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="75"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="69"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="69"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="69"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="54"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="69"/>
+      <c r="B96" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D96" s="92"/>
+      <c r="E96" s="85" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="69"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="86"/>
+      <c r="E97" s="62"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="69"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="86"/>
+      <c r="E98" s="62"/>
+    </row>
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="69"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" s="86"/>
+      <c r="E99" s="62"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="69"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="D100" s="86"/>
+      <c r="E100" s="62"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="69"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" s="86"/>
+      <c r="E101" s="62"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="69"/>
+      <c r="B102" s="87"/>
+      <c r="C102" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="40" t="s">
+      <c r="D102" s="86"/>
+      <c r="E102" s="62"/>
+    </row>
+    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A103" s="69"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D103" s="86"/>
+      <c r="E103" s="62"/>
+    </row>
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A104" s="69"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" s="94"/>
+      <c r="E104" s="62"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="69"/>
+      <c r="B105" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="96"/>
+      <c r="D105" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="69"/>
+      <c r="B106" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" s="89"/>
+      <c r="D106" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="69"/>
+      <c r="B107" s="78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="69"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E108" s="61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="69"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+      <c r="D109" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="E109" s="61"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="69"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A111" s="69"/>
+      <c r="B111" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E111" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="69"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" s="59"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="69"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="69"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="69"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="69"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="69"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="69"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="30"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="30"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="44"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="44"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="44"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="46"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="46"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="21"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="21"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E80" s="21"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="46"/>
-      <c r="E81" s="21"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="D82" s="69"/>
-      <c r="E82" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D83" s="20"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="66"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D86" s="67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D87" s="68" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" s="71"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D90" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="E90" s="80" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D91" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="E91" s="80"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" s="77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="E93" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="D94" s="78"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="69"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="69"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="69"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="69"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="69"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A105:A108"/>
+  <mergeCells count="28">
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A10:A57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A58:A118"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A6:A51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A52:A100"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,129 +3400,129 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
+      <c r="B3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
